--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value822.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value822.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7771942248180642</v>
+        <v>1.489400148391724</v>
       </c>
       <c r="B1">
-        <v>3.76702177782442</v>
+        <v>3.613487958908081</v>
       </c>
       <c r="C1">
-        <v>2.204443255318276</v>
+        <v>2.491650104522705</v>
       </c>
       <c r="D1">
-        <v>1.638943307611482</v>
+        <v>1.298937797546387</v>
       </c>
       <c r="E1">
-        <v>1.440837850524962</v>
+        <v>0.7618328332901001</v>
       </c>
     </row>
   </sheetData>
